--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1065622.869456023</v>
+        <v>-1067521.101560147</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351459.1301901097</v>
+        <v>177491.6148818105</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>129.0256710464179</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>369.3085521581982</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>26.29646057870823</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>111.6826257076522</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>337.0726440988623</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>205.3644314241348</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>43.60620160013919</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>126.1302540891101</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>19.47749871112574</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>44.58467420294791</v>
+        <v>22.35153719005459</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>39.11561436815781</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>165.1182835606711</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>148.7416974947219</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>80.83119524460984</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.2100584890558</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>24.01153903325445</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>204.8677470121061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.01789850670193</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>161.8175117958952</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>79.47420870022064</v>
       </c>
       <c r="U28" t="n">
-        <v>141.2552209831413</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329203</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463101</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1130.084661047914</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="C2" t="n">
-        <v>761.1221441075027</v>
+        <v>609.1812513243285</v>
       </c>
       <c r="D2" t="n">
-        <v>761.1221441075027</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>761.1221441075027</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>754.1766433582992</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1520.223993023726</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.084661047914</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="3">
@@ -4413,13 +4413,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>487.2784796319623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>487.2784796319623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V4" t="n">
-        <v>487.2784796319623</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W4" t="n">
-        <v>487.2784796319623</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="X4" t="n">
-        <v>487.2784796319623</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="Y4" t="n">
-        <v>487.2784796319623</v>
+        <v>224.6669506791651</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.700798147047</v>
+        <v>1395.511531185079</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>1026.549014244667</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>668.283315637917</v>
       </c>
       <c r="E5" t="n">
         <v>555.4725825998845</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1672.840130122858</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1282.700798147047</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>773.5003462121384</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V7" t="n">
-        <v>491.2732454397182</v>
+        <v>97.98965010333333</v>
       </c>
       <c r="W7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.683768698139</v>
+        <v>588.0044362889284</v>
       </c>
       <c r="C8" t="n">
-        <v>825.7212517577275</v>
+        <v>588.0044362889284</v>
       </c>
       <c r="D8" t="n">
-        <v>825.7212517577275</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>825.7212517577275</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>414.7353469681199</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>400.8119429067108</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>73.61722294271368</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>974.6042763530502</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="X10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,22 +5024,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>987.4051452743433</v>
       </c>
       <c r="M12" t="n">
-        <v>1608.660951743751</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N12" t="n">
-        <v>1953.181607381369</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.935021465331</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V13" t="n">
-        <v>1332.130125547123</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>1042.712955510163</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>814.7234046121455</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>593.9308254686154</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,16 +5297,16 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.3578574653</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,13 +5355,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>506.3718661188911</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1120.26893587578</v>
+        <v>672.2361090130202</v>
       </c>
       <c r="M15" t="n">
         <v>1440.604255405482</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>542.2642714241468</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>394.3511778417537</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.4612303438434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>692.3809108364826</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>692.3809108364826</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>894.5540770733951</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M18" t="n">
-        <v>1214.889396603097</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>557.8888784891305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>557.8888784891305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>409.9757849067374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>263.085837408827</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5735,22 +5735,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5835,22 +5835,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1189.663494389109</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M21" t="n">
-        <v>1509.998813918811</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N21" t="n">
-        <v>1854.519469556429</v>
+        <v>2017.280470355589</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.3055067228584</v>
+        <v>121.471171291856</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3055067228584</v>
+        <v>121.471171291856</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>121.471171291856</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227918</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169049</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W22" t="n">
-        <v>620.2426249169049</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X22" t="n">
-        <v>620.2426249169049</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y22" t="n">
-        <v>413.3055067228584</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="23">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>155.0560774135236</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>155.0560774135236</v>
       </c>
       <c r="L24" t="n">
-        <v>711.1141612171745</v>
+        <v>768.9531471704122</v>
       </c>
       <c r="M24" t="n">
-        <v>1031.449480746876</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N24" t="n">
-        <v>1559.410052240715</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.21084526296</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W25" t="n">
-        <v>785.7936752259998</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>557.8041243279824</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>557.8041243279824</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6306,25 +6306,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>327.180197328635</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M27" t="n">
-        <v>1095.548343721096</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N27" t="n">
-        <v>1559.410052240715</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1418.639292072831</v>
       </c>
       <c r="U28" t="n">
-        <v>1132.448813950296</v>
+        <v>1418.639292072831</v>
       </c>
       <c r="V28" t="n">
-        <v>877.7643257444088</v>
+        <v>1163.954803866944</v>
       </c>
       <c r="W28" t="n">
-        <v>877.7643257444088</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X28" t="n">
-        <v>649.7747748463914</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y28" t="n">
-        <v>428.9821957028613</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M30" t="n">
-        <v>1608.660951743752</v>
+        <v>1078.658454602814</v>
       </c>
       <c r="N30" t="n">
-        <v>2374.820091292176</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108343</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229686</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506739</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083219</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045219</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010329</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6695,13 +6695,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M33" t="n">
-        <v>1608.660951743751</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N33" t="n">
-        <v>2328.464088060424</v>
+        <v>1620.996162334878</v>
       </c>
       <c r="O33" t="n">
-        <v>2328.464088060424</v>
+        <v>2290.459923637537</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2473.103401250889</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6853,55 +6853,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254949</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649684</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860495</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,16 +6920,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6980,7 +6980,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M36" t="n">
-        <v>2030.299435654558</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N36" t="n">
-        <v>2374.820091292176</v>
+        <v>1961.218619068864</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,13 +7090,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,22 +7157,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7336,13 +7336,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859416</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010315</v>
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7424,13 +7424,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>2069.080661879162</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982966</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2148.713336069209</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>345.3896816323992</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,7 +10206,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,16 +10440,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>311.854929684357</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,10 +11388,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10.81525101172465</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>82.51931018359551</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>130.1668934622808</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>158.8051956154454</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985783</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>87.0193597631569</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>17.75187096865565</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>171.3064480792182</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23890,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>2.283509974321817</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>122.4224236133147</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.71690633998872</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>167.8140816752354</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>124.7054865406958</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,16 +24652,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>142.0733523581686</v>
       </c>
       <c r="U28" t="n">
-        <v>144.982131415436</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.463718035665806e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3.339550858072471e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142387.7480708447</v>
+        <v>142387.7480708446</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
         <v>143682.3097262497</v>
@@ -26332,22 +26332,22 @@
         <v>136860.1709081981</v>
       </c>
       <c r="I2" t="n">
-        <v>136860.170908198</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="J2" t="n">
-        <v>136860.170908198</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262494</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262494</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262495</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371266</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371258</v>
+        <v>54505.51210371256</v>
       </c>
     </row>
     <row r="4">
@@ -26418,22 +26418,22 @@
         <v>134836.8924937719</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905759104</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>787.7936905758824</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
@@ -26442,16 +26442,16 @@
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189629</v>
+        <v>23206.58093189639</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189638</v>
-      </c>
       <c r="N4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
@@ -26479,10 +26479,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665276.1017008811</v>
+        <v>-665294.5954388157</v>
       </c>
       <c r="C6" t="n">
-        <v>-78235.90751777889</v>
+        <v>-78235.90751777877</v>
       </c>
       <c r="D6" t="n">
-        <v>-78235.90751777883</v>
+        <v>-78235.90751777886</v>
       </c>
       <c r="E6" t="n">
-        <v>-481074.9852079904</v>
+        <v>-481172.4443339627</v>
       </c>
       <c r="F6" t="n">
-        <v>44085.05126890558</v>
+        <v>43987.59214293343</v>
       </c>
       <c r="G6" t="n">
-        <v>44085.0512689056</v>
+        <v>43987.59214293346</v>
       </c>
       <c r="H6" t="n">
-        <v>44085.05126890562</v>
+        <v>43987.59214293348</v>
       </c>
       <c r="I6" t="n">
-        <v>44085.05126890552</v>
+        <v>43987.59214293347</v>
       </c>
       <c r="J6" t="n">
-        <v>-132338.1679236874</v>
+        <v>-132435.6270496596</v>
       </c>
       <c r="K6" t="n">
-        <v>-31744.8891293847</v>
+        <v>-31744.88912938458</v>
       </c>
       <c r="L6" t="n">
-        <v>22760.62297432784</v>
+        <v>22760.62297432798</v>
       </c>
       <c r="M6" t="n">
-        <v>-112040.3922595092</v>
+        <v>-112040.3922595095</v>
       </c>
       <c r="N6" t="n">
-        <v>22760.62297432793</v>
+        <v>22760.62297432769</v>
       </c>
       <c r="O6" t="n">
-        <v>22760.62297432772</v>
+        <v>22760.62297432774</v>
       </c>
       <c r="P6" t="n">
-        <v>-31744.8891293849</v>
+        <v>-31744.88912938489</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26762,19 +26762,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="N3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26814,7 +26814,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>225.6573705742651</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>44.47561786259683</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>203.7625640583822</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>225.8411827451198</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>88.41775988981396</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>270.2477443646096</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>32.65845657960676</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>46.77321189969317</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>242.9167967364518</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>228.5527875315728</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>132.4538175337355</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>181.1249811860893</v>
+        <v>203.3581181989826</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31142,25 +31142,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31370,13 +31370,13 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>160.6967431133298</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31613,28 +31613,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,28 +31838,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>251.853211213329</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>241.4090972701575</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,16 +32075,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>118.6626388367733</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>221.9175268955028</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32099,13 +32099,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>158.0642534345934</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>148.5278971900333</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,25 +32555,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>288.153359660201</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>95.829871426875</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>59.1698094608414</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32798,19 +32798,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>185.2928442992126</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33032,10 +33032,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>199.2022664297724</v>
       </c>
       <c r="N27" t="n">
-        <v>120.5465180626266</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33044,10 +33044,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>425.8974584957639</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,28 +33497,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>379.0732128071261</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>71.15710456022251</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,22 +33734,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>425.8974584957645</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>336.9463652653355</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,28 +33962,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>152.4580040397288</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946974</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,28 +34199,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34229,16 +34229,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>284.43098949119</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35018,13 +35018,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>392.9827086369148</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>484.139176736914</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>425.8974584957645</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2864368749929</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>454.2034924190878</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>390.3502189581784</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>496.5285594502536</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>520.439325183786</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>347.0959462591601</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>58.42321813458354</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>533.2935065594328</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>522.7732962577539</v>
       </c>
       <c r="N27" t="n">
-        <v>468.5471803228468</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>251.2660748322851</v>
@@ -36692,10 +36692,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>203.2556477103809</v>
       </c>
       <c r="N30" t="n">
-        <v>773.8981207559841</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>727.0738750673463</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>141.2526182100501</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>749.4684883237461</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>588.2124400976206</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>476.0290338677104</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>180.5132176010237</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>468.9193507167969</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
